--- a/output/be-allergyintolerance.xlsx
+++ b/output/be-allergyintolerance.xlsx
@@ -510,7 +510,7 @@
     <t>Causative agent codes as defined by NIHDI</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-causativeagent</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-allergyintolerancecode</t>
   </si>
   <si>
     <t>AllergyIntolerance.patient</t>
@@ -1055,7 +1055,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
